--- a/Data/GazetteerSqKm/GazetteerCombinedAdminLevels/SOM_AdminBoundaries_TabularData.xlsx
+++ b/Data/GazetteerSqKm/GazetteerCombinedAdminLevels/SOM_AdminBoundaries_TabularData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkSpace\CODProcessing\schemaupdate\BriarScript\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arusso.OS\Documents\GitHub\mapservicedoc\Data\GazetteerSqKm\GazetteerCombinedAdminLevels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A181BC78-EECA-4D1C-8515-81C9E3384A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C95D11-2D7F-48CA-A266-87BA865C69C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Admin2" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3120" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3118" uniqueCount="568">
   <si>
     <t>date</t>
   </si>
@@ -1665,12 +1665,6 @@
     <t>OPZ 283</t>
   </si>
   <si>
-    <t>El Salvador</t>
-  </si>
-  <si>
-    <t>SV</t>
-  </si>
-  <si>
     <t>Galmudug Administration</t>
   </si>
   <si>
@@ -1699,15 +1693,6 @@
   </si>
   <si>
     <t>ADM0_PCODE</t>
-  </si>
-  <si>
-    <t>ADM0_ES</t>
-  </si>
-  <si>
-    <t>ADM0_ALT1_ES</t>
-  </si>
-  <si>
-    <t>ADM0_ALT2_ES</t>
   </si>
   <si>
     <t>ADM0_REF</t>
@@ -1805,12 +1790,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2151,7 +2137,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
     </sheetView>
@@ -2173,31 +2159,31 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>571</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>0</v>
@@ -4393,31 +4379,31 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>564</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>569</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>0</v>
@@ -5374,25 +5360,25 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>0</v>
@@ -16058,16 +16044,16 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -16503,11 +16489,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16515,57 +16501,51 @@
     <col min="1" max="1" width="29.90625" customWidth="1"/>
     <col min="2" max="2" width="11.7265625" customWidth="1"/>
     <col min="3" max="3" width="13.7265625" customWidth="1"/>
-    <col min="4" max="5" width="17.7265625" customWidth="1"/>
-    <col min="6" max="6" width="5.7265625" customWidth="1"/>
-    <col min="7" max="8" width="7.7265625" customWidth="1"/>
-    <col min="9" max="9" width="14.7265625" customWidth="1"/>
+    <col min="4" max="4" width="5.7265625" customWidth="1"/>
+    <col min="5" max="5" width="11.36328125" customWidth="1"/>
+    <col min="6" max="6" width="7.7265625" customWidth="1"/>
+    <col min="7" max="7" width="14.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>559</v>
+        <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>560</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>546</v>
+        <v>188</v>
       </c>
       <c r="B2" t="s">
-        <v>547</v>
-      </c>
-      <c r="F2">
-        <v>43980</v>
+        <v>189</v>
+      </c>
+      <c r="D2" s="3">
+        <v>44916</v>
       </c>
       <c r="G2">
-        <v>44231</v>
-      </c>
-      <c r="I2">
-        <v>20422.75390625</v>
-      </c>
+        <v>633040.8726</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D4" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16593,13 +16573,13 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>555</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>557</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -16636,7 +16616,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B3" t="s">
         <v>188</v>
@@ -16656,7 +16636,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B4" t="s">
         <v>188</v>
@@ -16676,7 +16656,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B5" t="s">
         <v>188</v>
@@ -16696,7 +16676,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B6" t="s">
         <v>188</v>
@@ -16716,7 +16696,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B7" t="s">
         <v>188</v>
@@ -16736,7 +16716,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B8" t="s">
         <v>188</v>
@@ -16756,7 +16736,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B9" t="s">
         <v>188</v>

--- a/Data/GazetteerSqKm/GazetteerCombinedAdminLevels/SOM_AdminBoundaries_TabularData.xlsx
+++ b/Data/GazetteerSqKm/GazetteerCombinedAdminLevels/SOM_AdminBoundaries_TabularData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arusso.OS\Documents\GitHub\mapservicedoc\Data\GazetteerSqKm\GazetteerCombinedAdminLevels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C95D11-2D7F-48CA-A266-87BA865C69C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EACA2E31-7239-4E29-8E20-02FF1BBCAEA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3118" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3117" uniqueCount="567">
   <si>
     <t>date</t>
   </si>
@@ -1693,9 +1693,6 @@
   </si>
   <si>
     <t>ADM0_PCODE</t>
-  </si>
-  <si>
-    <t>ADM0_REF</t>
   </si>
   <si>
     <t>ADM1_EN</t>
@@ -1790,13 +1787,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2159,31 +2157,31 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>561</v>
-      </c>
       <c r="C1" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>567</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>557</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>558</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>554</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>0</v>
@@ -4379,31 +4377,31 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>561</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>557</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>558</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>554</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>0</v>
@@ -5360,19 +5358,19 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>561</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>557</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>558</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>554</v>
@@ -16044,10 +16042,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>557</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>558</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>554</v>
@@ -16489,25 +16487,24 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="29.90625" customWidth="1"/>
     <col min="2" max="2" width="11.7265625" customWidth="1"/>
-    <col min="3" max="3" width="13.7265625" customWidth="1"/>
-    <col min="4" max="4" width="5.7265625" customWidth="1"/>
-    <col min="5" max="5" width="11.36328125" customWidth="1"/>
-    <col min="6" max="6" width="7.7265625" customWidth="1"/>
-    <col min="7" max="7" width="14.7265625" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" customWidth="1"/>
+    <col min="4" max="4" width="11.36328125" customWidth="1"/>
+    <col min="5" max="5" width="7.7265625" customWidth="1"/>
+    <col min="6" max="6" width="14.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>554</v>
       </c>
@@ -16515,37 +16512,37 @@
         <v>555</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>556</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>188</v>
       </c>
       <c r="B2" t="s">
         <v>189</v>
       </c>
-      <c r="D2" s="3">
-        <v>44916</v>
-      </c>
-      <c r="G2">
+      <c r="C2" s="3">
+        <v>44916</v>
+      </c>
+      <c r="D2" s="4">
+        <v>44993</v>
+      </c>
+      <c r="F2">
         <v>633040.8726</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D4" s="3"/>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C4" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/GazetteerSqKm/GazetteerCombinedAdminLevels/SOM_AdminBoundaries_TabularData.xlsx
+++ b/Data/GazetteerSqKm/GazetteerCombinedAdminLevels/SOM_AdminBoundaries_TabularData.xlsx
@@ -7,9 +7,9 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Admin0" sheetId="1" r:id="rId1"/>
-    <sheet name="Admin1" sheetId="2" r:id="rId2"/>
-    <sheet name="Admin2" sheetId="3" r:id="rId3"/>
+    <sheet name="ADM0" sheetId="1" r:id="rId1"/>
+    <sheet name="ADM1" sheetId="2" r:id="rId2"/>
+    <sheet name="ADM2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -18,31 +18,31 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="216">
   <si>
-    <t>admin0Name_en</t>
-  </si>
-  <si>
-    <t>admin0Pcode</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>validOn</t>
-  </si>
-  <si>
-    <t>validTo</t>
-  </si>
-  <si>
-    <t>admin0RefName</t>
-  </si>
-  <si>
-    <t>admin0AltName1_en</t>
-  </si>
-  <si>
-    <t>admin0AltName2_en</t>
-  </si>
-  <si>
-    <t>Area_SqKm</t>
+    <t>ADM0_EN</t>
+  </si>
+  <si>
+    <t>ADM0_PCODE</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>VALIDON</t>
+  </si>
+  <si>
+    <t>VALIDTO</t>
+  </si>
+  <si>
+    <t>ADM0_REF</t>
+  </si>
+  <si>
+    <t>ADM0ALT1_EN</t>
+  </si>
+  <si>
+    <t>ADM0ALT2_EN</t>
+  </si>
+  <si>
+    <t>AREA_SQKM</t>
   </si>
   <si>
     <t>Somalia</t>
@@ -51,19 +51,19 @@
     <t>SO</t>
   </si>
   <si>
-    <t>admin1Name_en</t>
-  </si>
-  <si>
-    <t>admin1Pcode</t>
-  </si>
-  <si>
-    <t>admin1RefName</t>
-  </si>
-  <si>
-    <t>admin1AltName1_en</t>
-  </si>
-  <si>
-    <t>admin1AltName2_en</t>
+    <t>ADM1_EN</t>
+  </si>
+  <si>
+    <t>ADM1_PCODE</t>
+  </si>
+  <si>
+    <t>ADM1_REF</t>
+  </si>
+  <si>
+    <t>ADM1ALT1_EN</t>
+  </si>
+  <si>
+    <t>ADM1ALT2_EN</t>
   </si>
   <si>
     <t>Awdal</t>
@@ -207,19 +207,19 @@
     <t>West Galbeed</t>
   </si>
   <si>
-    <t>admin2Name_en</t>
-  </si>
-  <si>
-    <t>admin2Pcode</t>
-  </si>
-  <si>
-    <t>admin2RefName</t>
-  </si>
-  <si>
-    <t>admin2AltName1_en</t>
-  </si>
-  <si>
-    <t>admin2AltName2_en</t>
+    <t>ADM2_EN</t>
+  </si>
+  <si>
+    <t>ADM2_PCODE</t>
+  </si>
+  <si>
+    <t>ADM2_REF</t>
+  </si>
+  <si>
+    <t>ADM2ALT1_EN</t>
+  </si>
+  <si>
+    <t>ADM2ALT2_EN</t>
   </si>
   <si>
     <t>Borama</t>
@@ -1033,15 +1033,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
-    <col min="7" max="8" width="17.7109375" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
@@ -1107,17 +1098,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" customWidth="1"/>
-    <col min="6" max="7" width="7.7109375" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
-    <col min="9" max="10" width="17.7109375" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
@@ -1670,19 +1650,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" customWidth="1"/>
-    <col min="11" max="12" width="7.7109375" customWidth="1"/>
-    <col min="13" max="13" width="17.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
